--- a/Proyect/data/barrios/Excel Barrios/Tipo_de_Barrio.xlsx
+++ b/Proyect/data/barrios/Excel Barrios/Tipo_de_Barrio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10960" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo_de_Barrio" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Con Seguridad</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Santina Norte</t>
   </si>
   <si>
-    <t>Country Jockey Club</t>
-  </si>
-  <si>
     <t>Altos de Manantiales</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Estancia La Lucila</t>
   </si>
   <si>
-    <t>La Santina Country</t>
-  </si>
-  <si>
     <t>La Paya II</t>
   </si>
   <si>
@@ -237,6 +231,27 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Jockey Club</t>
+  </si>
+  <si>
+    <t>Mendiolaza Golf</t>
+  </si>
+  <si>
+    <t>Lomas del Chateau</t>
+  </si>
+  <si>
+    <t>Solares de San Alfonso</t>
+  </si>
+  <si>
+    <t>Terrazas de Villa Allende</t>
+  </si>
+  <si>
+    <t>La Santina</t>
+  </si>
+  <si>
+    <t>Cumbres del Golf</t>
   </si>
 </sst>
 </file>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,13 +624,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,13 +638,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -651,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,13 +680,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,13 +694,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -693,13 +708,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -707,13 +722,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -721,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -746,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -757,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,18 +783,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -787,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -811,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -835,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,7 +861,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -859,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -867,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -875,7 +893,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,7 +901,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +925,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,7 +941,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,7 +949,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -939,7 +957,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -947,7 +965,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,7 +973,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -963,7 +981,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,7 +989,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,7 +997,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -987,7 +1005,54 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
